--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huiguan/Documents/website/guanh01.github.io/markdown_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieren/Project/PW/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9C5BD8-138D-8442-A030-AEB95202BEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8D315-CE5A-FC49-AB95-564A502F14A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="2200" windowWidth="34680" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>pub_date</t>
   </si>
@@ -40,268 +40,151 @@
     <t>paper_url</t>
   </si>
   <si>
-    <t>Hui Guan, Wen Tang, Hamid Krim, James Keiser, Andrew Rindos, and Radmila Sazdanovic</t>
-  </si>
-  <si>
-    <t>spawc</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2016spawc.pdf</t>
-  </si>
-  <si>
-    <t>Hui Guan, Thanos Gentimis, Hamid , and James Keiser</t>
-  </si>
-  <si>
-    <t>First Study on Data Readiness Level</t>
-  </si>
-  <si>
-    <t>arXiv preprint arXiv:1702.02107 (Preprint)</t>
-  </si>
-  <si>
-    <t>arxiv</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2017arxiv.pdf</t>
-  </si>
-  <si>
-    <t>Yufei Ding, Lin Ning, Hui Guan, Xipeng Shen</t>
-  </si>
-  <si>
-    <t>Generalizations of the Theory and Deployment of Triangular Inequality for Compiler-Based Strength Reduction</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2017pldi.pdf</t>
-  </si>
-  <si>
-    <t>Hui Guan, Xipeng Shen, and Hamid Krim</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2017sc.pdf</t>
-  </si>
-  <si>
-    <t>Yufei Ding, Lin Ning, Hui Guan, Xipeng Shen, Madanlal Musuvathi, Todd Mytkowicz</t>
-  </si>
-  <si>
-    <t>TOP: A Compiler-Based Framework for Optimizing Machine Learning Algorithms through Generalized Triangle Inequality</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2018top.pdf</t>
-  </si>
-  <si>
-    <t>Hui Guan, Yufei Ding, Xipeng Shen, and Hamid Krim</t>
-  </si>
-  <si>
-    <t>Reuse-Centric K-Means Configuration</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2018icde.pdf</t>
-  </si>
-  <si>
-    <t>Randall Pittman, Hui Guan, Xipeng Shen, Seung-Hwan Lim, and Robert M. Patton</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2018sc.pdf</t>
-  </si>
-  <si>
-    <t>Lin Ning, Hui Guan, and Xipeng Shen</t>
-  </si>
-  <si>
-    <t>Adaptive Deep Reuse: Accelerating CNN Training on the Fly</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2019icde.pdf</t>
-  </si>
-  <si>
-    <t>Hui Guan, Xipeng Shen, and Seung-Hwan Lim</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2019pldi.pdf</t>
-  </si>
-  <si>
-    <t>Hui Guan, Lin Ning, Zhen Lin, Xipeng Shen, Huiyang Zhou, and Seung-Hwan Lim</t>
-  </si>
-  <si>
-    <t>In-Place Zero-Space Memory Protection for CNN</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2019nips.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hui Guan, Andrey Malevich, Jiyan Yang, Jongsoo Park, Hector Yuen </t>
-  </si>
-  <si>
-    <t>Post-Training 4-bit Quantization on Embedding Tables</t>
-  </si>
-  <si>
-    <t>MLSys Workshop on Systems for ML @ NeurIPS, 2019 (Poster)</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2019fb.pdf</t>
-  </si>
-  <si>
-    <t>Hui Guan, Laxmikant Kishor Mokadam, Xipeng Shen, Seung-Hwan Lim, Robert Patton</t>
-  </si>
-  <si>
-    <t>FLEET: Flexible Efficient Ensemble Training for Heterogeneous Deep Neural Networks</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2020mlsys.pdf</t>
-  </si>
-  <si>
-    <t>Zifan Nan, Hui Guan, Xipeng Shen</t>
-  </si>
-  <si>
-    <t>HISyn: Human Learning-Inspired Natural Language Programming</t>
-  </si>
-  <si>
-    <t>A Topological Collapse for Document Summarization</t>
-  </si>
-  <si>
-    <t>Egeria: a Framework for Automatic Synthesis of HPC Advising Tools through Multi-Layered Natural Language Processing</t>
-  </si>
-  <si>
-    <t>Exploring Flexible Communications for Streamlining DNN Ensemble Training Pipelines</t>
-  </si>
-  <si>
-    <t>Wootz: a Compiler-Based Framework for Fast CNN Pruning via Composability</t>
-  </si>
-  <si>
-    <t>An Automatic Synthesizer of Advising Tools for High Performance Computing</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2020tpds.pdf</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2020hisyn.pdf</t>
-  </si>
-  <si>
-    <t>Zifan Nan, Hui Guan, Xipeng Shen, and Chunhua Liao</t>
-  </si>
-  <si>
-    <t>Deep NLP-Based Co-Evolvement for Synthesizing Code Analysis from Natural Language</t>
-  </si>
-  <si>
-    <t>http://guanh01.github.io/files/2021cc.pdf</t>
-  </si>
-  <si>
-    <t>Lijun Zhang, Hui Guan, Yufei Ding, Xipeng Shen, Hamid Krim</t>
-  </si>
-  <si>
-    <t>SysML, Feb 16th, 2018 (Poster)</t>
-  </si>
-  <si>
-    <t>https://authors.elsevier.com/sd/article/S0306-4379(21)00043-0</t>
-  </si>
-  <si>
-    <t>Information Systems, 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceedings of the 38th ACM SIGPLAN Conference on Programming Language Design and Implementation (&lt;b&gt;PLDI'17&lt;/b&gt;). (Acceptance rate: 15% (47/322)) </t>
-  </si>
-  <si>
-    <t>IEEE 17th International Workshop on Signal Processing Advances in Wireless Communications (&lt;b&gt;SPAWC'16&lt;/b&gt;).</t>
-  </si>
-  <si>
-    <t>Proceedings of the International Conference for High Performance Computing, Networking, Storage and Analysis (&lt;b&gt;SC'17&lt;/b&gt;). (Acceptance rate: 18% (61/327))</t>
-  </si>
-  <si>
-    <t>34th International Conference on Data Engineering (&lt;b&gt;ICDE'18&lt;/b&gt;). (short paper) (Acceptance rate: 23%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceedings of the International Conference for High Performance Computing, Networking, Storage, and Analysis (&lt;b&gt;SC'18&lt;/b&gt;). (Acceptance rate: 23%) </t>
-  </si>
-  <si>
-    <t>35th International Conference on Data Engineering (&lt;b&gt;ICDE'19&lt;/b&gt;). (Acceptance rate: 18%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proceedings of the 40th ACM SIGPLAN Conference on Programming Language Design and Implementation (&lt;b&gt;PLDI'19&lt;/b&gt;). (Acceptance rate: 27.7% (76/274)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advances in Neural Information Processing Systems (&lt;b&gt;NeurIPS'19&lt;/b&gt;). (Acceptance rate: 21.2% (1428/6743)) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd Conference on Machine Learning and Systems (&lt;b&gt;MLSys'20&lt;/b&gt;). (Acceptance rate: 20% (34/170)) </t>
-  </si>
-  <si>
-    <t>The ACM Joint European Software Engineering Conference and Symposium on the Foundations of Software Engineering (&lt;b&gt;ESEC/FSE'20&lt;/b&gt;). (acceptance rate: 101/360=28%) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IEEE Transactions on Parallel and Distributed Systems (&lt;b&gt;TPDS 2020&lt;/b&gt;). </t>
-  </si>
-  <si>
-    <t>The ACM SIGPLAN 2021 International Conference on Compiler Construction (&lt;b&gt;CC'21&lt;/b&gt;)</t>
-  </si>
-  <si>
-    <t>Xin Zhao, Jin Zhou, Hui Guan, Wei Wang, Xu Liu, Tongping Liu</t>
-  </si>
-  <si>
-    <t>NumaPerf: Predictive NUMA Profiling</t>
-  </si>
-  <si>
     <t>Proceedings of International Conference on Supercomputing (&lt;b&gt;ICS'21&lt;/b&gt;)</t>
   </si>
   <si>
-    <t>http://guanh01.github.io/files/2021ics.pdf</t>
-  </si>
-  <si>
     <t>21ics</t>
   </si>
   <si>
-    <t>2020tpds</t>
-  </si>
-  <si>
-    <t>2021cc</t>
-  </si>
-  <si>
-    <t>2021kmeans</t>
-  </si>
-  <si>
-    <t>2020fse</t>
-  </si>
-  <si>
-    <t>2020mlsys</t>
-  </si>
-  <si>
-    <t>2019fb</t>
-  </si>
-  <si>
-    <t>2019nips</t>
-  </si>
-  <si>
-    <t>2019pldi</t>
-  </si>
-  <si>
-    <t>2019icde</t>
-  </si>
-  <si>
-    <t>2018sc</t>
-  </si>
-  <si>
-    <t>2018icde</t>
-  </si>
-  <si>
-    <t>2018top</t>
-  </si>
-  <si>
-    <t>2017sc</t>
-  </si>
-  <si>
-    <t>2017pldi</t>
-  </si>
-  <si>
-    <t>CoCoPIE: Enabling Real-Time AI on Off-the-Shelf Mobile Devices via Compression-Compilation Co-Design</t>
-  </si>
-  <si>
-    <t>Hui Guan, Shaoshan Liu, Xiaolong Ma, Wei Niu, Bin Ren, Xipeng Shen, Yanzhi Wang, Pu Zhao</t>
-  </si>
-  <si>
-    <t>2021CACM</t>
-  </si>
-  <si>
-    <t>https://cacm.acm.org/magazines/2021/6/252819-cocopie/fulltext</t>
-  </si>
-  <si>
-    <t>Communications of the ACM, 2021</t>
+    <t xml:space="preserve">Optimizing Large-Scale Plasma Simulations on Persistent Memory-based Heterogeneous Memory with Effective Data Placement Across Memory Hierarchy </t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2021/ICS21_WarpX_Optane.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZeRO-Offload: Democratizing Billion-Scale Model Training </t>
+  </si>
+  <si>
+    <t>21atc</t>
+  </si>
+  <si>
+    <t>https://www.usenix.org/conference/atc21/presentation/ren-jie</t>
+  </si>
+  <si>
+    <t>2021 USENIX Annual Technical Conference (&lt;b&gt;ATC'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>21fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArchTM: Architecture-Aware, High Performance Transaction for Persistent Memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparta: High-Performance, Element-Wise Sparse Tensor Contraction on Heterogeneous Memory </t>
+  </si>
+  <si>
+    <t>In 19th USENIX Conference on File and Storage Technologies (&lt;b&gt;FAST'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>In 26th Principles and Practice of Parallel Programming (&lt;b&gt;PPoPP'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>21ppopp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentinel: Efficient Tensor Migration and Allocation on Heterogeneous Memory Systems for Deep Learning </t>
+  </si>
+  <si>
+    <t>In 27th IEEE International Symposium on HighPerformance Computer Architecture(&lt;b&gt;HPCA'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>21hpca</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2021/hpca21_sentinel.pdf</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2020/NeurIPS20_HM_ANN.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HM-ANN: Efficient Billion-Point Nearest Neighbor Search on Heterogeneous Memory </t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Minjia Zhang and Dong Li</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Jiaolin Luo, Kai Wu, Minjia Zhang, Hyeran Jeon and Dong Li</t>
+  </si>
+  <si>
+    <t>Jiawen Liu, &lt;u&gt;Jie Ren&lt;/u&gt;, Roberto Gioiosa, Dong Li and Jiajia Li</t>
+  </si>
+  <si>
+    <t>Kai Wu, &lt;u&gt;Jie Ren&lt;/u&gt;, Ivy Peng and Dong Li</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Jiaolin Luo, Ivy Peng, Kai Wu, and Dong Li </t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Samyam Rajbhandari, Reza Yazdani Aminabadi, Olatunji Ruwase, Shuangyan Yang, Minjia Zhang, Dong Li and Yuxiong He</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Kai Wu and Dong Li</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2020/Cluster20_easycrash.pdf</t>
+  </si>
+  <si>
+    <t>20cluster</t>
+  </si>
+  <si>
+    <t>20neurips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Non-Volatility of Non-Volatile Memory for High Performance Computing Under Failures </t>
+  </si>
+  <si>
+    <t>In 34th Conference on Neural Information Processing Systems(&lt;b&gt;NeurIPS'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>In IEEE International Conference on Cluster Computing (&lt;b&gt;Cluster'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>Kai Wu, Ivy B. Peng, &lt;u&gt;Jie Ren&lt;/u&gt; and Dong Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribbon: High Performance Cache Line Flushing for Persistent Memory </t>
+  </si>
+  <si>
+    <t> In 29th International Conference on Parallel Architectures and Compilation Techniques (&lt;b&gt;PACT'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>20pact</t>
+  </si>
+  <si>
+    <t> Ivy Peng, Kai Wu, &lt;u&gt;Jie Ren&lt;/u&gt;, Dong Li and Maya Gokhale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demystifying the Performance of HPC Scientific Applications on NVM-based Memory Systems </t>
+  </si>
+  <si>
+    <t> In 34th IEEE International Parallel and Distributed Processing Symposium  (&lt;b&gt;IPDPS'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>20ipdps</t>
+  </si>
+  <si>
+    <t> Kai Wu, &lt;u&gt;Jie Ren&lt;/u&gt;, and Dong Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime Data Management on Non-Volatile Memory-based Heterogeneous Memory for Task-Parallel Programs </t>
+  </si>
+  <si>
+    <t>In 30th ACM/IEEE International Conference for High Performance Computing, Networking, Storage and Analysis (&lt;b&gt;SC'18&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>18sc</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Kai Wu, and Dong Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Application Recomputability without Crash Consistency in Non-Volatile Memory </t>
+  </si>
+  <si>
+    <t>In Workshop on Memory Centric Programming for HPC (&lt;b&gt;MCHPC'18&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>18schpc</t>
   </si>
 </sst>
 </file>
@@ -311,7 +194,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -458,6 +341,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -802,13 +691,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1165,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1201,372 +1092,208 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>42522</v>
+        <v>43160</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>42705</v>
+        <v>43191</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>42736</v>
+        <v>43831</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18">
+      <c r="A5" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18">
+      <c r="A6" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34">
+      <c r="A9" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>43053</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>43132</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>43344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>43405</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>43617</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>43627</v>
+      <c r="A10" s="5">
+        <v>44197</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>43808</v>
+        <v>44256</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>43808</v>
+      <c r="A12" s="5">
+        <v>44287</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>44136</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="34">
-      <c r="A16" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>44287</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>44348</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>44348</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" xr:uid="{D7B64B95-9D14-1F4C-8997-3F0170E8D006}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{7C0B6682-E7FC-A240-A886-6C99B6750C8A}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{4054A136-F4CC-D544-8E1E-C1E6E1280599}"/>
-    <hyperlink ref="F18" r:id="rId4" xr:uid="{62B309C3-2115-E34E-B340-E824F9E665E5}"/>
-    <hyperlink ref="F19" r:id="rId5" xr:uid="{221C069A-CB82-0148-81C7-D280ABA6C2D8}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieren/Project/PW/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8D315-CE5A-FC49-AB95-564A502F14A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4EDCA-552F-3548-8545-D57604B02C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>pub_date</t>
   </si>
@@ -185,6 +185,24 @@
   </si>
   <si>
     <t>18schpc</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2018/MCHPC18_JieRen_Understanding_Application.pdf</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2018/SC18_Kai.pdf</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2020/IPDPS20_hpc_optane.pdf</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2020/PACT20_Ribbon.pdf</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2021/ppopp21_sparta.pdf</t>
+  </si>
+  <si>
+    <t>http://pasalabs.org/papers/2021/fast21_archTM.pdf</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1106,6 +1124,9 @@
       <c r="E2" t="s">
         <v>54</v>
       </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -1123,6 +1144,9 @@
       <c r="E3" t="s">
         <v>50</v>
       </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -1140,6 +1164,9 @@
       <c r="E4" t="s">
         <v>46</v>
       </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18">
       <c r="A5" s="1">
@@ -1157,6 +1184,9 @@
       <c r="E5" t="s">
         <v>42</v>
       </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18">
       <c r="A6" s="1">
@@ -1200,7 +1230,7 @@
     </row>
     <row r="8" spans="1:6" ht="18">
       <c r="A8" s="1">
-        <v>44259</v>
+        <v>44256</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -1220,7 +1250,7 @@
     </row>
     <row r="9" spans="1:6" ht="34">
       <c r="A9" s="1">
-        <v>44470</v>
+        <v>43831</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1234,7 +1264,9 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5">
@@ -1252,10 +1284,13 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>44256</v>
+        <v>44259</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieren/Project/PW/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB4EDCA-552F-3548-8545-D57604B02C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B031D9-CCDC-A748-854C-EFE84D8C11D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>pub_date</t>
   </si>
@@ -40,9 +40,6 @@
     <t>paper_url</t>
   </si>
   <si>
-    <t>Proceedings of International Conference on Supercomputing (&lt;b&gt;ICS'21&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>21ics</t>
   </si>
   <si>
@@ -73,21 +70,12 @@
     <t xml:space="preserve">Sparta: High-Performance, Element-Wise Sparse Tensor Contraction on Heterogeneous Memory </t>
   </si>
   <si>
-    <t>In 19th USENIX Conference on File and Storage Technologies (&lt;b&gt;FAST'21&lt;/b&gt;)</t>
-  </si>
-  <si>
-    <t>In 26th Principles and Practice of Parallel Programming (&lt;b&gt;PPoPP'21&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>21ppopp</t>
   </si>
   <si>
     <t xml:space="preserve">Sentinel: Efficient Tensor Migration and Allocation on Heterogeneous Memory Systems for Deep Learning </t>
   </si>
   <si>
-    <t>In 27th IEEE International Symposium on HighPerformance Computer Architecture(&lt;b&gt;HPCA'21&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>21hpca</t>
   </si>
   <si>
@@ -133,21 +121,12 @@
     <t xml:space="preserve">Exploring Non-Volatility of Non-Volatile Memory for High Performance Computing Under Failures </t>
   </si>
   <si>
-    <t>In 34th Conference on Neural Information Processing Systems(&lt;b&gt;NeurIPS'20&lt;/b&gt;)</t>
-  </si>
-  <si>
-    <t>In IEEE International Conference on Cluster Computing (&lt;b&gt;Cluster'20&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>Kai Wu, Ivy B. Peng, &lt;u&gt;Jie Ren&lt;/u&gt; and Dong Li</t>
   </si>
   <si>
     <t xml:space="preserve">Ribbon: High Performance Cache Line Flushing for Persistent Memory </t>
   </si>
   <si>
-    <t> In 29th International Conference on Parallel Architectures and Compilation Techniques (&lt;b&gt;PACT'20&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>20pact</t>
   </si>
   <si>
@@ -157,9 +136,6 @@
     <t xml:space="preserve">Demystifying the Performance of HPC Scientific Applications on NVM-based Memory Systems </t>
   </si>
   <si>
-    <t> In 34th IEEE International Parallel and Distributed Processing Symposium  (&lt;b&gt;IPDPS'20&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>20ipdps</t>
   </si>
   <si>
@@ -169,9 +145,6 @@
     <t xml:space="preserve">Runtime Data Management on Non-Volatile Memory-based Heterogeneous Memory for Task-Parallel Programs </t>
   </si>
   <si>
-    <t>In 30th ACM/IEEE International Conference for High Performance Computing, Networking, Storage and Analysis (&lt;b&gt;SC'18&lt;/b&gt;)</t>
-  </si>
-  <si>
     <t>18sc</t>
   </si>
   <si>
@@ -181,12 +154,6 @@
     <t xml:space="preserve">Understanding Application Recomputability without Crash Consistency in Non-Volatile Memory </t>
   </si>
   <si>
-    <t>In Workshop on Memory Centric Programming for HPC (&lt;b&gt;MCHPC'18&lt;/b&gt;)</t>
-  </si>
-  <si>
-    <t>18schpc</t>
-  </si>
-  <si>
     <t>http://pasalabs.org/papers/2018/MCHPC18_JieRen_Understanding_Application.pdf</t>
   </si>
   <si>
@@ -203,6 +170,54 @@
   </si>
   <si>
     <t>http://pasalabs.org/papers/2021/fast21_archTM.pdf</t>
+  </si>
+  <si>
+    <t>International Conference on Supercomputing (&lt;b&gt;ICS'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>19th USENIX Conference on File and Storage Technologies (&lt;b&gt;FAST'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>26th Principles and Practice of Parallel Programming (&lt;b&gt;PPoPP'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>27th IEEE International Symposium on HighPerformance Computer Architecture(&lt;b&gt;HPCA'21&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>34th Conference on Neural Information Processing Systems(&lt;b&gt;NeurIPS'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Cluster Computing (&lt;b&gt;Cluster'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>29th International Conference on Parallel Architectures and Compilation Techniques (&lt;b&gt;PACT'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>34th IEEE International Parallel and Distributed Processing Symposium  (&lt;b&gt;IPDPS'20&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>30th ACM/IEEE International Conference for High Performance Computing, Networking, Storage and Analysis (&lt;b&gt;SC'18&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>Workshop on Memory Centric Programming for HPC (&lt;b&gt;MCHPC'18&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>Opera: Data Access Pattern Similarity Analysis To Optimize OpenMP Task Affinity</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Chunhua Liao, and Dong Li</t>
+  </si>
+  <si>
+    <t>24th International Workshop On High-level Parallel Programming Models And Supportive Environments (&lt;b&gt;HIPS'18&lt;/b&gt;),</t>
+  </si>
+  <si>
+    <t>18mchpc</t>
+  </si>
+  <si>
+    <t>18hips</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8778255</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1113,219 +1128,237 @@
         <v>43160</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>43191</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
         <v>43831</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
         <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="1">
-        <v>44075</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18">
       <c r="A6" s="1">
-        <v>44136</v>
+        <v>44075</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18">
       <c r="A7" s="1">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18">
       <c r="A8" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="1">
         <v>44256</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="34">
-      <c r="A9" s="1">
+    <row r="10" spans="1:6" ht="34">
+      <c r="A10" s="1">
         <v>43831</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5">
-        <v>44197</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>44259</v>
+      <c r="A11" s="5">
+        <v>44197</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
         <v>44287</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F13" t="s">
         <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieren/Project/PW/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B031D9-CCDC-A748-854C-EFE84D8C11D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5E1D6-CE5A-734F-9593-7DF423B67E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1144,7 +1144,9 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>43189</v>
+      </c>
       <c r="B3" t="s">
         <v>61</v>
       </c>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jieren/Project/PW/jren73.github.io/markdown_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiewm/Projects/personal_web/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5E1D6-CE5A-734F-9593-7DF423B67E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474F146-1E1C-CB40-AEB6-8F21CB0A73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>pub_date</t>
   </si>
@@ -218,6 +218,30 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/document/8778255</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Dong Xu, Shuangyan Yang, Jiacheng Zhao, Zhicheng Li, Christian Navasca, Chenxi Wang, Harry Xu, and Dong Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabling Large Dynamic Neural Network Training with Learning-based Memory Management </t>
+  </si>
+  <si>
+    <t>30th IEEE International Symposium on High-Performance Computer Architecture (&lt;b&gt;HPCA'24&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>24hpca</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Dong Xu, Junhee Ryu, Kwangsik Shin, Daewoo Kim, and Dong Li</t>
+  </si>
+  <si>
+    <t>Towards Efficient Page Profiling and Migration on Multi-Tiered Large Memory Systems</t>
+  </si>
+  <si>
+    <t>EuroSys XVIII (&lt;b&gt;EuroSys'24&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>24eurosys</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1363,6 +1387,40 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:6" ht="18">
+      <c r="A14" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18">
+      <c r="A15" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiewm/Projects/personal_web/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8474F146-1E1C-CB40-AEB6-8F21CB0A73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBA1B8-8A9F-2C46-B977-00D7FF8390A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>pub_date</t>
   </si>
@@ -242,6 +242,60 @@
   </si>
   <si>
     <t>24eurosys</t>
+  </si>
+  <si>
+    <t>Exploring and Evaluating Real-world CXL: Use Cases and System Adoption</t>
+  </si>
+  <si>
+    <t>Xi Wang, Jie Liu, Jianbo Wu, Shuangyan Yang, &lt;u&gt;Jie Ren&lt;/u&gt;, Bhanu Shankar, and Dong Li</t>
+  </si>
+  <si>
+    <t>In 39th IEEE International Parallel \&amp; Distributed Processing Symposium.  (&lt;b&gt;IPDPS'25 &lt;b&gt;)</t>
+  </si>
+  <si>
+    <t>25ipdps</t>
+  </si>
+  <si>
+    <t>Large-Scale AI Surrogate for Regional Ocean Modeling System (ROMS)</t>
+  </si>
+  <si>
+    <t>Zelin Xu, &lt;u&gt;Jie Ren&lt;/u&gt;, Yupu Zhang, Jose Maria Gonzalez Ondina, Maitane Olabarrieta, Tingsong Xiao, Wenchong He, Zibo Liu, Shigang Chen, Kaleb Smith, and Zhe Jiang</t>
+  </si>
+  <si>
+    <t>Gabin Schieffer, Jennifer Faj, &lt;u&gt;Jie Ren&lt;/u&gt;, Jacob Wahlgren, Ivy Peng</t>
+  </si>
+  <si>
+    <t>Dissecting Grace Hopper Integrated CPU-GPU System Memory for HPC Applications</t>
+  </si>
+  <si>
+    <t>24icpp</t>
+  </si>
+  <si>
+    <t>In 53rd International Conference on Parallel Processing. (&lt;b&gt; ICPP'24 &lt;b&gt;)</t>
+  </si>
+  <si>
+    <t>ATTNChecker: Highly-Optimized Fault Tolerant Attention for Large Language Model Training</t>
+  </si>
+  <si>
+    <t>Yuhang Liang, Bo Fang, Xinyi Li, &lt;u&gt;Jie Ren&lt;/u&gt;, Ang Li, and Jieyang Chen</t>
+  </si>
+  <si>
+    <t>In ACM SIGPLAN Symposium on Principles and Practice of Parallel Programming. (&lt;b&gt;PPoPP'25&lt;b&gt;)</t>
+  </si>
+  <si>
+    <t>25ppopp</t>
+  </si>
+  <si>
+    <t>Machine Learning-Guided Memory Optimization for DLRM Inference on Tiered Memory</t>
+  </si>
+  <si>
+    <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Bin Ma, Benjamin Francis, Ehsan Ardestani, Min Si, and Dong Li</t>
+  </si>
+  <si>
+    <t>In 31th IEEE International Symposium on High-Performance Computer Architecture. (&lt;b&gt;HPCA'25 &lt;b&gt;)</t>
+  </si>
+  <si>
+    <t>25hpca</t>
   </si>
 </sst>
 </file>
@@ -817,9 +871,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -857,7 +911,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -963,7 +1017,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1105,7 +1159,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1113,17 +1167,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="90.5" customWidth="1"/>
-    <col min="3" max="3" width="56.83203125" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
     <col min="4" max="4" width="105" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1421,6 +1475,91 @@
         <v>73</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiewm/Projects/personal_web/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CBA1B8-8A9F-2C46-B977-00D7FF8390A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073BF1D-4991-4A42-8653-C5FA1283A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>pub_date</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>25hpca</t>
+  </si>
+  <si>
+    <t>25ipdps2</t>
   </si>
 </sst>
 </file>
@@ -1169,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1361,7 +1364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34">
+    <row r="10" spans="1:6" ht="17">
       <c r="A10" s="1">
         <v>43831</v>
       </c>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="B17" t="s">
         <v>79</v>
@@ -1506,7 +1509,7 @@
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiewm/Projects/personal_web/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073BF1D-4991-4A42-8653-C5FA1283A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38332DBA-8655-1B4C-9E13-F56F97573117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>pub_date</t>
   </si>
@@ -250,15 +250,9 @@
     <t>Xi Wang, Jie Liu, Jianbo Wu, Shuangyan Yang, &lt;u&gt;Jie Ren&lt;/u&gt;, Bhanu Shankar, and Dong Li</t>
   </si>
   <si>
-    <t>In 39th IEEE International Parallel \&amp; Distributed Processing Symposium.  (&lt;b&gt;IPDPS'25 &lt;b&gt;)</t>
-  </si>
-  <si>
     <t>25ipdps</t>
   </si>
   <si>
-    <t>Large-Scale AI Surrogate for Regional Ocean Modeling System (ROMS)</t>
-  </si>
-  <si>
     <t>Zelin Xu, &lt;u&gt;Jie Ren&lt;/u&gt;, Yupu Zhang, Jose Maria Gonzalez Ondina, Maitane Olabarrieta, Tingsong Xiao, Wenchong He, Zibo Liu, Shigang Chen, Kaleb Smith, and Zhe Jiang</t>
   </si>
   <si>
@@ -299,6 +293,30 @@
   </si>
   <si>
     <t>25ipdps2</t>
+  </si>
+  <si>
+    <t>In 39th IEEE International Parallel &amp; Distributed Processing Symposium.  (&lt;b&gt;IPDPS'25 &lt;b&gt;)</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10476398</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3627703.3650075</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2405.14209</t>
+  </si>
+  <si>
+    <t>Accelerate Coastal Ocean Circulation Model with AI Surrogate</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2410.14952</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2407.07850</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3710848.3710870</t>
   </si>
 </sst>
 </file>
@@ -1172,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1460,6 +1478,9 @@
       <c r="E14" t="s">
         <v>69</v>
       </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="18">
       <c r="A15" s="1">
@@ -1477,6 +1498,9 @@
       <c r="E15" t="s">
         <v>73</v>
       </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -1489,78 +1513,90 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
         <v>76</v>
       </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>45628</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>45475</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
         <v>80</v>
       </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>45476</v>
       </c>
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>45477</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
         <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/publications.xlsx
+++ b/markdown_generator/publications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiewm/Projects/personal_web/jren73.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38332DBA-8655-1B4C-9E13-F56F97573117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6B7C3F-D40A-694D-BC4F-494413BD9964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,18 +265,12 @@
     <t>24icpp</t>
   </si>
   <si>
-    <t>In 53rd International Conference on Parallel Processing. (&lt;b&gt; ICPP'24 &lt;b&gt;)</t>
-  </si>
-  <si>
     <t>ATTNChecker: Highly-Optimized Fault Tolerant Attention for Large Language Model Training</t>
   </si>
   <si>
     <t>Yuhang Liang, Bo Fang, Xinyi Li, &lt;u&gt;Jie Ren&lt;/u&gt;, Ang Li, and Jieyang Chen</t>
   </si>
   <si>
-    <t>In ACM SIGPLAN Symposium on Principles and Practice of Parallel Programming. (&lt;b&gt;PPoPP'25&lt;b&gt;)</t>
-  </si>
-  <si>
     <t>25ppopp</t>
   </si>
   <si>
@@ -286,18 +280,12 @@
     <t>&lt;u&gt;Jie Ren&lt;/u&gt;, Bin Ma, Benjamin Francis, Ehsan Ardestani, Min Si, and Dong Li</t>
   </si>
   <si>
-    <t>In 31th IEEE International Symposium on High-Performance Computer Architecture. (&lt;b&gt;HPCA'25 &lt;b&gt;)</t>
-  </si>
-  <si>
     <t>25hpca</t>
   </si>
   <si>
     <t>25ipdps2</t>
   </si>
   <si>
-    <t>In 39th IEEE International Parallel &amp; Distributed Processing Symposium.  (&lt;b&gt;IPDPS'25 &lt;b&gt;)</t>
-  </si>
-  <si>
     <t>https://ieeexplore.ieee.org/document/10476398</t>
   </si>
   <si>
@@ -317,6 +305,18 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/10.1145/3710848.3710870</t>
+  </si>
+  <si>
+    <t>In 39th IEEE International Parallel &amp; Distributed Processing Symposium.  (&lt;b&gt;IPDPS'25 &lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>In 53rd International Conference on Parallel Processing. (&lt;b&gt; ICPP'24 &lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>In ACM SIGPLAN Symposium on Principles and Practice of Parallel Programming. (&lt;b&gt;PPoPP'25&lt;/b&gt;)</t>
+  </si>
+  <si>
+    <t>In 31th IEEE International Symposium on High-Performance Computer Architecture. (&lt;b&gt;HPCA'25 &lt;/b&gt;)</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1479,7 +1479,7 @@
         <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18">
@@ -1499,7 +1499,7 @@
         <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1513,13 +1513,13 @@
         <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
         <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1530,16 +1530,16 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
         <v>95</v>
       </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1553,13 +1553,13 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
         <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1567,19 +1567,19 @@
         <v>45476</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1587,16 +1587,16 @@
         <v>45477</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
         <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
